--- a/The Human Brain Book.xlsx
+++ b/The Human Brain Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="585" windowWidth="27555" windowHeight="12120"/>
+    <workbookView xWindow="720" yWindow="585" windowWidth="27555" windowHeight="12120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -253,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$100</c:f>
+              <c:f>Sheet1!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4555555555270985</c:v>
                 </c:pt>
@@ -293,10 +292,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$100</c:f>
+              <c:f>Sheet1!$J$2:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>7.4555555555270985</c:v>
                 </c:pt>
@@ -324,11 +323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="50514944"/>
-        <c:axId val="52537600"/>
+        <c:axId val="54084096"/>
+        <c:axId val="117531776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50514944"/>
+        <c:axId val="54084096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +375,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52537600"/>
+        <c:crossAx val="117531776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -384,7 +383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52537600"/>
+        <c:axId val="117531776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -415,7 +414,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50514944"/>
+        <c:crossAx val="54084096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -763,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/The Human Brain Book.xlsx
+++ b/The Human Brain Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="585" windowWidth="27555" windowHeight="12120" activeTab="1"/>
+    <workbookView xWindow="720" yWindow="645" windowWidth="27555" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -252,10 +252,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$5</c:f>
+              <c:f>Sheet1!$I$2:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.4555555555270985</c:v>
                 </c:pt>
@@ -267,6 +267,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.925233644507934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.760784313835972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.357874170202509</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,10 +298,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>Sheet1!$J$2:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.4555555555270985</c:v>
                 </c:pt>
@@ -307,6 +313,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11.556896780780773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.78142912305136</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.370514001812241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,11 +335,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54084096"/>
-        <c:axId val="117531776"/>
+        <c:axId val="143304192"/>
+        <c:axId val="139908160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54084096"/>
+        <c:axId val="143304192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,7 +387,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117531776"/>
+        <c:crossAx val="139908160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -383,7 +395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117531776"/>
+        <c:axId val="139908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,7 +426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54084096"/>
+        <c:crossAx val="143304192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -762,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,16 +978,80 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="A6" s="12">
+        <v>43020.876388888886</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6" s="12">
+        <v>43020.914583333331</v>
+      </c>
+      <c r="D6">
+        <v>99</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6" si="16">C6-A6</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="17">D6-B6+1</f>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6" si="18">F6/(E6*24*60)</f>
+        <v>0.18181818181433337</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6" si="19">G6*60</f>
+        <v>10.909090908860003</v>
+      </c>
+      <c r="I6" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H6)</f>
+        <v>13.760784313835972</v>
+      </c>
+      <c r="J6" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H6)</f>
+        <v>12.78142912305136</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="12">
+        <v>43022.886111111111</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12">
+        <v>43022.925000000003</v>
+      </c>
+      <c r="D7">
+        <v>112</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E7" si="20">C7-A7</f>
+        <v>3.888888889196096E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="21">D7-B7+1</f>
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7" si="22">F7/(E7*24*60)</f>
+        <v>0.23214285712451876</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" ref="H7" si="23">G7*60</f>
+        <v>13.928571427471127</v>
+      </c>
+      <c r="I7" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H7)</f>
+        <v>15.357874170202509</v>
+      </c>
+      <c r="J7" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H7)</f>
+        <v>13.370514001812241</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1813,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A25:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1912,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1845,7 +1921,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>36.776859504132233</v>
+        <v>46.280991735537192</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1930,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>153</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +1939,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>63.223140495867767</v>
+        <v>53.719008264462808</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1948,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>11.925233644507934</v>
+        <v>15.357874170202509</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1881,7 +1957,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>11.556896780780773</v>
+        <v>13.370514001812241</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1966,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.36833686372716024</v>
+        <v>1.9873601683902677</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,7 +1975,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>7.5395072215277432</v>
+        <v>8.2500976947368851</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1908,7 +1984,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>7.3066330886754471</v>
+        <v>7.1825075216346752</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1931,7 +2007,7 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.8888888884685002E-2</v>
+        <v>3.8194444445252884E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
@@ -1973,19 +2049,19 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>4.0972222221171251E-2</v>
+        <v>3.9583333335031057E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.33821839081457761</v>
+        <v>0.26262315269901382</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>20.293103448874653</v>
+        <v>15.757389161940829</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1994,19 +2070,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>4.0798611109494232E-2</v>
+        <v>4.0046296295865126E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>20.75</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.34899795419483226</v>
+        <v>0.30165880928636352</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>20.939877251689939</v>
+        <v>18.099528557181817</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2015,11 +2091,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:3:55:00</v>
+        <v>0:5:46:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>

--- a/The Human Brain Book.xlsx
+++ b/The Human Brain Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="645" windowWidth="27555" windowHeight="12060"/>
+    <workbookView xWindow="720" yWindow="825" windowWidth="27555" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -274,6 +275,15 @@
                 <c:pt idx="5">
                   <c:v>15.357874170202509</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.133333333911231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.133923304865693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.251111112488434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -320,6 +330,15 @@
                 <c:pt idx="5">
                   <c:v>13.370514001812241</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.705815283628327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.771684199841914</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.563476221248584</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -335,11 +354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="143304192"/>
-        <c:axId val="139908160"/>
+        <c:axId val="175075840"/>
+        <c:axId val="174484288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143304192"/>
+        <c:axId val="175075840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,7 +406,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139908160"/>
+        <c:crossAx val="174484288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -395,7 +414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139908160"/>
+        <c:axId val="174484288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -426,7 +445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143304192"/>
+        <c:crossAx val="175075840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -775,7 +794,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,40 +1073,194 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="A8" s="12">
+        <v>43029.838888888888</v>
+      </c>
+      <c r="B8">
+        <v>113</v>
+      </c>
+      <c r="C8" s="12">
+        <v>43029.875</v>
+      </c>
+      <c r="D8">
+        <v>125</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ref="E8" si="24">C8-A8</f>
+        <v>3.6111111112404615E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="25">D8-B8+1</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" ref="G8" si="26">F8/(E8*24*60)</f>
+        <v>0.24999999999104497</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8" si="27">G8*60</f>
+        <v>14.999999999462698</v>
+      </c>
+      <c r="I8" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H8)</f>
+        <v>16.133333333911231</v>
+      </c>
+      <c r="J8" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H8)</f>
+        <v>13.705815283628327</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="A9" s="12">
+        <v>43036.669444444444</v>
+      </c>
+      <c r="B9">
+        <v>126</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43036.706250000003</v>
+      </c>
+      <c r="D9">
+        <v>140</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ref="E9" si="28">C9-A9</f>
+        <v>3.680555555911269E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="29">D9-B9+1</f>
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9" si="30">F9/(E9*24*60)</f>
+        <v>0.28301886789717545</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" ref="H9" si="31">G9*60</f>
+        <v>16.981132073830526</v>
+      </c>
+      <c r="I9" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H9)</f>
+        <v>15.133923304865693</v>
+      </c>
+      <c r="J9" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H9)</f>
+        <v>13.771684199841914</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="10"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="A10" s="12">
+        <v>43041.940972222219</v>
+      </c>
+      <c r="B10">
+        <v>141</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43041.980555555558</v>
+      </c>
+      <c r="D10">
+        <v>159</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ref="E10" si="32">C10-A10</f>
+        <v>3.9583333338669036E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10" si="33">D10-B10+1</f>
+        <v>19</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" ref="G10" si="34">F10/(E10*24*60)</f>
+        <v>0.33333333328840109</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" ref="H10" si="35">G10*60</f>
+        <v>19.999999997304066</v>
+      </c>
+      <c r="I10" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H10)</f>
+        <v>14.251111112488434</v>
+      </c>
+      <c r="J10" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H10)</f>
+        <v>13.563476221248584</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="A11" s="12">
+        <v>43057.646527777775</v>
+      </c>
+      <c r="B11">
+        <v>160</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43057.681250000001</v>
+      </c>
+      <c r="D11">
+        <v>175</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ref="E11" si="36">C11-A11</f>
+        <v>3.4722222226264421E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="37">D11-B11+1</f>
+        <v>16</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11" si="38">F11/(E11*24*60)</f>
+        <v>0.31999999996274708</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11" si="39">G11*60</f>
+        <v>19.199999997764824</v>
+      </c>
+      <c r="I11" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H11)</f>
+        <v>14.00165631542175</v>
+      </c>
+      <c r="J11" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H11)</f>
+        <v>13.461023683494339</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="10"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="A12" s="12">
+        <v>43069.741666666669</v>
+      </c>
+      <c r="B12">
+        <v>176</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43069.779861111114</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12" si="40">C12-A12</f>
+        <v>3.8194444445252884E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="41">D12-B12+1</f>
+        <v>25</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12" si="42">F12/(E12*24*60)</f>
+        <v>0.45454545453583345</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12" si="43">G12*60</f>
+        <v>27.272727272150007</v>
+      </c>
+      <c r="I12" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H12)</f>
+        <v>13.760784313835972</v>
+      </c>
+      <c r="J12" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H12)</f>
+        <v>12.856733874789697</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -1912,7 +2085,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>112</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1921,7 +2094,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>46.280991735537192</v>
+        <v>82.644628099173559</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1930,7 +2103,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1939,7 +2112,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>53.719008264462808</v>
+        <v>17.355371900826448</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +2121,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>15.357874170202509</v>
+        <v>13.760784313835972</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1957,7 +2130,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>13.370514001812241</v>
+        <v>12.856733874789697</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,7 +2139,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>1.9873601683902677</v>
+        <v>0.90405043904627469</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1975,7 +2148,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>8.2500976947368851</v>
+        <v>2.3882352941368215</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1984,7 +2157,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>7.1825075216346752</v>
+        <v>2.2313339782692863</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2007,7 +2180,7 @@
       </c>
       <c r="E36" s="11">
         <f>MIN(Sheet1!E2:E1000)</f>
-        <v>3.8194444445252884E-2</v>
+        <v>3.4722222226264421E-2</v>
       </c>
       <c r="F36" s="4">
         <f>MIN(Sheet1!F2:F1000)</f>
@@ -2049,19 +2222,19 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>3.9583333335031057E-2</v>
+        <v>3.8888888884685002E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.26262315269901382</v>
+        <v>0.29310344827350887</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>15.757389161940829</v>
+        <v>17.58620689641053</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2070,19 +2243,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>4.0046296295865126E-2</v>
+        <v>3.8699494950626766E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>17.666666666666668</v>
+        <v>17.636363636363637</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.30165880928636352</v>
+        <v>0.31371368285394391</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>18.099528557181817</v>
+        <v>18.822820971236638</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2091,11 +2264,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:5:46:00</v>
+        <v>0:10:13:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>

--- a/The Human Brain Book.xlsx
+++ b/The Human Brain Book.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="825" windowWidth="27555" windowHeight="11880"/>
+    <workbookView xWindow="720" yWindow="885" windowWidth="27555" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -354,11 +353,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="175075840"/>
-        <c:axId val="174484288"/>
+        <c:axId val="40477184"/>
+        <c:axId val="40747008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175075840"/>
+        <c:axId val="40477184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,7 +405,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174484288"/>
+        <c:crossAx val="40747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -414,7 +413,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174484288"/>
+        <c:axId val="40747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175075840"/>
+        <c:crossAx val="40477184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -794,7 +793,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1234,7 @@
         <v>43069.779861111114</v>
       </c>
       <c r="D12">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" ref="E12" si="40">C12-A12</f>
@@ -1243,56 +1242,176 @@
       </c>
       <c r="F12">
         <f t="shared" ref="F12" si="41">D12-B12+1</f>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" ref="G12" si="42">F12/(E12*24*60)</f>
-        <v>0.45454545453583345</v>
+        <v>0.21818181817720006</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" ref="H12" si="43">G12*60</f>
-        <v>27.272727272150007</v>
+        <v>13.090909090632003</v>
       </c>
       <c r="I12" s="2">
         <f>Sheet2!$B$25/MEDIAN($H$2:H12)</f>
-        <v>13.760784313835972</v>
+        <v>14.251111112488434</v>
       </c>
       <c r="J12" s="2">
         <f>Sheet2!$B$25/AVERAGE($H$2:H12)</f>
-        <v>12.856733874789697</v>
+        <v>13.802099181439974</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="10"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="A13" s="12">
+        <v>43071.796527777777</v>
+      </c>
+      <c r="B13">
+        <v>188</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43071.836111111108</v>
+      </c>
+      <c r="D13">
+        <v>210</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" ref="E13" si="44">C13-A13</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ref="F13" si="45">D13-B13+1</f>
+        <v>23</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="46">F13/(E13*24*60)</f>
+        <v>0.40350877194960333</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="47">G13*60</f>
+        <v>24.2105263169762</v>
+      </c>
+      <c r="I13" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H13)</f>
+        <v>14.00165631542175</v>
+      </c>
+      <c r="J13" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H13)</f>
+        <v>13.377572756435466</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="10"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="12">
+        <v>43076.753472222219</v>
+      </c>
+      <c r="B14">
+        <v>211</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43076.789583333331</v>
+      </c>
+      <c r="D14">
+        <v>221</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14" si="48">C14-A14</f>
+        <v>3.6111111112404615E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14" si="49">D14-B14+1</f>
+        <v>11</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" ref="G14" si="50">F14/(E14*24*60)</f>
+        <v>0.21153846153088421</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" ref="H14" si="51">G14*60</f>
+        <v>12.692307691853053</v>
+      </c>
+      <c r="I14" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H14)</f>
+        <v>14.251111112488434</v>
+      </c>
+      <c r="J14" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H14)</f>
+        <v>13.691830872257839</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="10"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
+      <c r="A15" s="12">
+        <v>43077.794444444444</v>
+      </c>
+      <c r="B15">
+        <v>222</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43077.834027777775</v>
+      </c>
+      <c r="D15">
+        <v>231</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" ref="E15" si="52">C15-A15</f>
+        <v>3.9583333331393078E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15" si="53">D15-B15+1</f>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15" si="54">F15/(E15*24*60)</f>
+        <v>0.17543859649982754</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" ref="H15" si="55">G15*60</f>
+        <v>10.526315789989653</v>
+      </c>
+      <c r="I15" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H15)</f>
+        <v>15.133923304865693</v>
+      </c>
+      <c r="J15" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H15)</f>
+        <v>14.099138951923084</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="10"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="A16" s="12">
+        <v>43078.817361111112</v>
+      </c>
+      <c r="B16">
+        <v>232</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43078.863194444442</v>
+      </c>
+      <c r="D16">
+        <v>242</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" ref="E16" si="56">C16-A16</f>
+        <v>4.5833333329937886E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ref="F16" si="57">D16-B16+1</f>
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16" si="58">F16/(E16*24*60)</f>
+        <v>0.16666666667901375</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16" si="59">G16*60</f>
+        <v>10.000000000740826</v>
+      </c>
+      <c r="I16" s="2">
+        <f>Sheet2!$B$25/MEDIAN($H$2:H16)</f>
+        <v>16.133333333911231</v>
+      </c>
+      <c r="J16" s="2">
+        <f>Sheet2!$B$25/AVERAGE($H$2:H16)</f>
+        <v>14.502691774009048</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -2063,7 +2182,7 @@
   <dimension ref="A25:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,7 +2204,7 @@
       </c>
       <c r="B26">
         <f>MAX(Sheet1!D2:D1000)</f>
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,7 +2213,7 @@
       </c>
       <c r="B27" s="4">
         <f>B26/B25*100</f>
-        <v>82.644628099173559</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2103,7 +2222,7 @@
       </c>
       <c r="B28">
         <f>B25-B26</f>
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2112,7 +2231,7 @@
       </c>
       <c r="B29" s="4">
         <f>B28/B25*100</f>
-        <v>17.355371900826448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2121,7 +2240,7 @@
       </c>
       <c r="B30" s="4">
         <f>B25/H38</f>
-        <v>13.760784313835972</v>
+        <v>16.133333333911231</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -2130,7 +2249,7 @@
       </c>
       <c r="B31" s="4">
         <f>B25/H39</f>
-        <v>12.856733874789697</v>
+        <v>14.502691774009048</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,7 +2258,7 @@
       </c>
       <c r="B32" s="2">
         <f>ABS(B30-B31)</f>
-        <v>0.90405043904627469</v>
+        <v>1.630641559902184</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,7 +2267,7 @@
       </c>
       <c r="B33" s="2">
         <f>B28/H38</f>
-        <v>2.3882352941368215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2157,7 +2276,7 @@
       </c>
       <c r="B34" s="2">
         <f>B28/H39</f>
-        <v>2.2313339782692863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2188,11 +2307,11 @@
       </c>
       <c r="G36" s="4">
         <f>MIN(Sheet1!G2:G1000)</f>
-        <v>0.17857142859073213</v>
+        <v>0.16666666667901375</v>
       </c>
       <c r="H36" s="4">
         <f>MIN(Sheet1!H2:H1000)</f>
-        <v>10.714285715443928</v>
+        <v>10.000000000740826</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2201,7 +2320,7 @@
       </c>
       <c r="E37" s="11">
         <f>MAX(Sheet1!E2:E1000)</f>
-        <v>4.2361111110949423E-2</v>
+        <v>4.5833333329937886E-2</v>
       </c>
       <c r="F37" s="4">
         <f>MAX(Sheet1!F2:F1000)</f>
@@ -2222,19 +2341,19 @@
       </c>
       <c r="E38" s="11">
         <f>MEDIAN(Sheet1!E2:E1000)</f>
-        <v>3.8888888884685002E-2</v>
+        <v>3.888888889196096E-2</v>
       </c>
       <c r="F38" s="4">
         <f>MEDIAN(Sheet1!F2:F1000)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G38" s="4">
         <f>MEDIAN(Sheet1!G2:G1000)</f>
-        <v>0.29310344827350887</v>
+        <v>0.24999999999104497</v>
       </c>
       <c r="H38" s="4">
         <f>MEDIAN(Sheet1!H2:H1000)</f>
-        <v>17.58620689641053</v>
+        <v>14.999999999462698</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2243,19 +2362,19 @@
       </c>
       <c r="E39" s="11">
         <f>AVERAGE(Sheet1!E2:E1000)</f>
-        <v>3.8699494950626766E-2</v>
+        <v>3.9120370370801537E-2</v>
       </c>
       <c r="F39" s="4">
         <f>AVERAGE(Sheet1!F2:F1000)</f>
-        <v>17.636363636363637</v>
+        <v>15.733333333333333</v>
       </c>
       <c r="G39" s="4">
         <f>AVERAGE(Sheet1!G2:G1000)</f>
-        <v>0.31371368285394391</v>
+        <v>0.27810929144627194</v>
       </c>
       <c r="H39" s="4">
         <f>AVERAGE(Sheet1!H2:H1000)</f>
-        <v>18.822820971236638</v>
+        <v>16.686557486776319</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2264,11 +2383,11 @@
       </c>
       <c r="E40" s="3" t="str">
         <f>TEXT(SUM(Sheet1!E2:E1000), "d:h:mm:ss")</f>
-        <v>0:10:13:00</v>
+        <v>0:14:05:00</v>
       </c>
       <c r="F40" s="4">
         <f>SUM(Sheet1!F2:F1000)</f>
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
